--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.number.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE4A79C-BDE7-9243-8C3A-03FC1DDC12F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEF2267-A5CD-BF43-A7FC-ED17532FEE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66640" yWindow="6320" windowWidth="47080" windowHeight="18220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="66140" yWindow="-5560" windowWidth="47080" windowHeight="18220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-NUMBER" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t>code</t>
   </si>
@@ -321,6 +321,22 @@
   </si>
   <si>
     <t>6c57ed73-e2e3-408f-9b79-5fe291c34a4e</t>
+  </si>
+  <si>
+    <t>文件申请待办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7d59e10f-7d3e-465e-8e7f-17fcf021307a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF.NUM.FILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WFR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -810,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71967B7B-87F9-4846-9FA6-1A2C9E90AB57}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1342,6 +1358,41 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="6">
+        <v>8</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:M2"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.number.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.number.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEF2267-A5CD-BF43-A7FC-ED17532FEE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849D3C2A-765A-E545-8962-628B3DE51896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="66140" yWindow="-5560" windowWidth="47080" windowHeight="18220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>code</t>
   </si>
@@ -124,24 +124,6 @@
     <t>NUM.LOG</t>
   </si>
   <si>
-    <t>NUM.EMPLOYEE</t>
-  </si>
-  <si>
-    <t>NUM.COMPANY</t>
-  </si>
-  <si>
-    <t>员工编号</t>
-  </si>
-  <si>
-    <t>NUM.IDENTIFY</t>
-  </si>
-  <si>
-    <t>档案编号</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>是否循环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,74 +132,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUM.CUSTOMER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.identity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x.log</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LOG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUM.CONTRACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.contract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUM.ASSET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.asset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NUM.TODO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,51 +186,6 @@
   <si>
     <t>ATI</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUM.VENDOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01bf2604-f3e1-4013-985a-162111ffc8b3</t>
-  </si>
-  <si>
-    <t>207d8ba1-929e-4014-a545-eab2a142f1e6</t>
-  </si>
-  <si>
-    <t>43bbbbe3-62d8-4223-b634-a83071a97ab3</t>
-  </si>
-  <si>
-    <t>e5ea3d5c-a21e-4499-9bde-06cf5447ea0a</t>
-  </si>
-  <si>
-    <t>beecdcca-4163-4cc6-b4b2-4fc985f6ace6</t>
-  </si>
-  <si>
-    <t>c97e4f8c-d242-4000-a371-5d06dddf67f2</t>
-  </si>
-  <si>
-    <t>6905ec50-d641-40af-94c8-f50acf5f1fd3</t>
   </si>
   <si>
     <t>29b2d690-1c7d-4c4f-9a8e-e9b5fb05fc52</t>
@@ -466,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -502,10 +379,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -826,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71967B7B-87F9-4846-9FA6-1A2C9E90AB57}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A5" sqref="A5:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -865,19 +738,19 @@
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -920,7 +793,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -964,7 +837,7 @@
         <v>23</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -972,426 +845,178 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="14" t="b">
+      <c r="K5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="14" t="b">
+      <c r="K6" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="5" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="6">
         <v>6</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="14" t="b">
+      <c r="K7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="5" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="6">
         <v>6</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="14" t="b">
+      <c r="K8" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="14" t="b">
+      <c r="K9" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6">
-        <v>6</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6">
-        <v>6</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="6">
-        <v>6</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-      <c r="K12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="6">
-        <v>6</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="6">
-        <v>6</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="6">
-        <v>6</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1</v>
-      </c>
-      <c r="K15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="6">
-        <v>8</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.number.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849D3C2A-765A-E545-8962-628B3DE51896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467D351F-E28E-7F4A-8A4C-1239879D354A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66140" yWindow="-5560" windowWidth="47080" windowHeight="18220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="900" yWindow="13820" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-NUMBER" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>code</t>
   </si>
@@ -208,11 +208,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WF.NUM.FILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WFR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W.File.Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyMMdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`${prefix}${time}${seed}`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71967B7B-87F9-4846-9FA6-1A2C9E90AB57}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -988,7 +996,7 @@
         <v>51</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>50</v>
@@ -997,13 +1005,13 @@
         <v>36</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="6">
@@ -1015,7 +1023,9 @@
       <c r="K9" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="M9" s="14"/>
     </row>
   </sheetData>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.number.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467D351F-E28E-7F4A-8A4C-1239879D354A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9908E2-C4CE-C543-B648-3F31283BAF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="13820" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="42700" yWindow="-2360" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-NUMBER" sheetId="2" r:id="rId1"/>
@@ -710,7 +710,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.number.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9908E2-C4CE-C543-B648-3F31283BAF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A661D5-39F8-9B43-B4BE-46EB11FFF4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42700" yWindow="-2360" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="59240" yWindow="-11320" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-NUMBER" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>code</t>
   </si>
@@ -221,6 +221,25 @@
   </si>
   <si>
     <t>`${prefix}${time}${seed}`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9b6caa87-1bcd-4b84-a7ee-73ebc2909b98</t>
+  </si>
+  <si>
+    <t>R.Workflow.Activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库操作历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +272,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -351,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -392,6 +419,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71967B7B-87F9-4846-9FA6-1A2C9E90AB57}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I3" sqref="I3:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -719,7 +758,7 @@
     <col min="2" max="2" width="37.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="8" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" style="8" bestFit="1" customWidth="1"/>
@@ -788,17 +827,17 @@
       <c r="H3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>30</v>
@@ -832,17 +871,17 @@
       <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>31</v>
@@ -874,16 +913,16 @@
         <v>5</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="I5" s="6">
+      <c r="I5" s="14"/>
+      <c r="J5" s="6">
         <v>6</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="6" t="b">
+      <c r="L5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:16">
@@ -909,16 +948,16 @@
         <v>5</v>
       </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="6">
+      <c r="I6" s="14"/>
+      <c r="J6" s="6">
         <v>6</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="6" t="b">
+      <c r="L6" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:16">
@@ -944,16 +983,16 @@
         <v>5</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="6">
+      <c r="I7" s="14"/>
+      <c r="J7" s="6">
         <v>6</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="6" t="b">
+      <c r="L7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:16">
@@ -979,16 +1018,16 @@
         <v>5</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="6">
+      <c r="I8" s="14"/>
+      <c r="J8" s="6">
         <v>6</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="6" t="b">
+      <c r="L8" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:16">
@@ -1014,19 +1053,55 @@
         <v>55</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="6">
+      <c r="I9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="6">
         <v>6</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="6" t="b">
+      <c r="L9" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="14"/>
+      <c r="J10" s="6">
+        <v>8</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="14" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.number.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A661D5-39F8-9B43-B4BE-46EB11FFF4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36C26B3-6A9E-C64D-824B-2B684D079D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59240" yWindow="-11320" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="63220" yWindow="-3620" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-NUMBER" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>code</t>
   </si>
@@ -239,7 +239,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000000</t>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyMMddHHmmss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,23 +418,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,7 +753,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -762,7 +766,7 @@
     <col min="6" max="6" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.83203125" style="8" bestFit="1" customWidth="1"/>
@@ -785,19 +789,19 @@
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1071,30 +1075,30 @@
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="18" t="s">
-        <v>54</v>
+      <c r="I10" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="J10" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K10" s="6">
         <v>1</v>
